--- a/Tests/Validation/SCRUM/ExampleScrumCropInstances.xlsx
+++ b/Tests/Validation/SCRUM/ExampleScrumCropInstances.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D74BBE0-AD07-4489-ABD5-1D03F4C6C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C4315-F171-4DCA-8046-36640AAA402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{201D1FA9-34D5-4C62-8A0B-7D71A6F18A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{201D1FA9-34D5-4C62-8A0B-7D71A6F18A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="SCRUM Example Crops" sheetId="2" r:id="rId1"/>
     <sheet name="SVS table" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SCRUM Example Crops'!$D$1:$D$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SCRUM Example Crops'!$D$1:$D$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="474">
   <si>
     <t>UniqueName</t>
   </si>
@@ -1278,144 +1278,6 @@
     <t>Use</t>
   </si>
   <si>
-    <t>Fodder beet Fodder</t>
-  </si>
-  <si>
-    <t>Swede Fodder</t>
-  </si>
-  <si>
-    <t>Rape Fodder</t>
-  </si>
-  <si>
-    <t>Kale Fodder</t>
-  </si>
-  <si>
-    <t>Annual ryegrass Fodder</t>
-  </si>
-  <si>
-    <t>Rye corn Fodder</t>
-  </si>
-  <si>
-    <t>Triticale Fodder</t>
-  </si>
-  <si>
-    <t>Oat Grain</t>
-  </si>
-  <si>
-    <t>Canola Grain</t>
-  </si>
-  <si>
-    <t>Hemp Grain</t>
-  </si>
-  <si>
-    <t>Chickpea Grain</t>
-  </si>
-  <si>
-    <t>Sunflower Grain</t>
-  </si>
-  <si>
-    <t>Barley Grain</t>
-  </si>
-  <si>
-    <t>Lentil Grain</t>
-  </si>
-  <si>
-    <t>Linseed Grain</t>
-  </si>
-  <si>
-    <t>Bean Grain</t>
-  </si>
-  <si>
-    <t>Pea Grain</t>
-  </si>
-  <si>
-    <t>Maize Grain</t>
-  </si>
-  <si>
-    <t>Leek Vegetable</t>
-  </si>
-  <si>
-    <t>Onion Vegetable</t>
-  </si>
-  <si>
-    <t>Spring onion Vegetable</t>
-  </si>
-  <si>
-    <t>Garlic Vegetable</t>
-  </si>
-  <si>
-    <t>Celery Vegetable</t>
-  </si>
-  <si>
-    <t>Silver beet Vegetable</t>
-  </si>
-  <si>
-    <t>Red beet Vegetable</t>
-  </si>
-  <si>
-    <t>Cauliflower Vegetable</t>
-  </si>
-  <si>
-    <t>Cabbage Vegetable</t>
-  </si>
-  <si>
-    <t>Brussel sprout  Vegetable</t>
-  </si>
-  <si>
-    <t>Broccoli Vegetable</t>
-  </si>
-  <si>
-    <t>Pak choi Vegetable</t>
-  </si>
-  <si>
-    <t>Choy sum Vegetable</t>
-  </si>
-  <si>
-    <t>Wong bok Vegetable</t>
-  </si>
-  <si>
-    <t>Coriander Vegetable</t>
-  </si>
-  <si>
-    <t>Squash Vegetable</t>
-  </si>
-  <si>
-    <t>Pumpkin Vegetable</t>
-  </si>
-  <si>
-    <t>Zucchini Vegetable</t>
-  </si>
-  <si>
-    <t>Carrot Vegetable</t>
-  </si>
-  <si>
-    <t>Kumara Vegetable</t>
-  </si>
-  <si>
-    <t>Parsnip Vegetable</t>
-  </si>
-  <si>
-    <t>Bean Vegetable</t>
-  </si>
-  <si>
-    <t>Pea Vegetable</t>
-  </si>
-  <si>
-    <t>Tomato Vegetable</t>
-  </si>
-  <si>
-    <t>Potato Vegetable</t>
-  </si>
-  <si>
-    <t>Spinach Vegetable</t>
-  </si>
-  <si>
-    <t>Broad bean Vegetable</t>
-  </si>
-  <si>
-    <t>Sweetcorn Vegetable</t>
-  </si>
-  <si>
     <t>Models.PMF.SimplePlantModels.ScrumCropInstance, Models</t>
   </si>
   <si>
@@ -1435,6 +1297,171 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Fodder Turnip Bulb</t>
+  </si>
+  <si>
+    <t>Fodder Turnip Leafy</t>
+  </si>
+  <si>
+    <t>Grain Wheat Breed</t>
+  </si>
+  <si>
+    <t>Grain Wheat Feed</t>
+  </si>
+  <si>
+    <t>Vegetable Lettuce Ice berg</t>
+  </si>
+  <si>
+    <t>Vegetable Lettuce Leafy-salad</t>
+  </si>
+  <si>
+    <t>Fodder Beat</t>
+  </si>
+  <si>
+    <t>Fodder Swede</t>
+  </si>
+  <si>
+    <t>Fodder Rape</t>
+  </si>
+  <si>
+    <t>Fodder Kale</t>
+  </si>
+  <si>
+    <t>Fodder Annual ryegrass</t>
+  </si>
+  <si>
+    <t>Fodder Oat</t>
+  </si>
+  <si>
+    <t>Fodder Barley</t>
+  </si>
+  <si>
+    <t>Fodder Rye corn</t>
+  </si>
+  <si>
+    <t>Fodder Triticale</t>
+  </si>
+  <si>
+    <t>Grain Oat</t>
+  </si>
+  <si>
+    <t>Grain Canola</t>
+  </si>
+  <si>
+    <t>Grain Hemp</t>
+  </si>
+  <si>
+    <t>Grain Chickpea</t>
+  </si>
+  <si>
+    <t>Grain Sunflower</t>
+  </si>
+  <si>
+    <t>Grain Barley</t>
+  </si>
+  <si>
+    <t>Grain Lentil</t>
+  </si>
+  <si>
+    <t>Grain Linseed</t>
+  </si>
+  <si>
+    <t>Grain Bean</t>
+  </si>
+  <si>
+    <t>Grain Pea</t>
+  </si>
+  <si>
+    <t>Grain Maize</t>
+  </si>
+  <si>
+    <t>Vegetable Leek</t>
+  </si>
+  <si>
+    <t>Vegetable Onion</t>
+  </si>
+  <si>
+    <t>Vegetable Spring onion</t>
+  </si>
+  <si>
+    <t>Vegetable Garlic</t>
+  </si>
+  <si>
+    <t>Vegetable Celery</t>
+  </si>
+  <si>
+    <t>Vegetable Silver beet</t>
+  </si>
+  <si>
+    <t>Vegetable Red beet</t>
+  </si>
+  <si>
+    <t>Vegetable Cauliflower</t>
+  </si>
+  <si>
+    <t>Vegetable Cabbage</t>
+  </si>
+  <si>
+    <t>Vegetable Brussel sprout</t>
+  </si>
+  <si>
+    <t>Vegetable Broccoli</t>
+  </si>
+  <si>
+    <t>Vegetable Pak choi</t>
+  </si>
+  <si>
+    <t>Vegetable Choy sum</t>
+  </si>
+  <si>
+    <t>Vegetable Wong bok</t>
+  </si>
+  <si>
+    <t>Vegetable Coriander</t>
+  </si>
+  <si>
+    <t>Vegetable Squash</t>
+  </si>
+  <si>
+    <t>Vegetable Pumpkin</t>
+  </si>
+  <si>
+    <t>Vegetable Zucchini</t>
+  </si>
+  <si>
+    <t>Vegetable Carrot</t>
+  </si>
+  <si>
+    <t>Vegetable Kumara</t>
+  </si>
+  <si>
+    <t>Vegetable Parsnip</t>
+  </si>
+  <si>
+    <t>Vegetable Bean</t>
+  </si>
+  <si>
+    <t>Vegetable Pea</t>
+  </si>
+  <si>
+    <t>Vegetable Tomato</t>
+  </si>
+  <si>
+    <t>Vegetable Potato</t>
+  </si>
+  <si>
+    <t>Vegetable Spinach</t>
+  </si>
+  <si>
+    <t>Vegetable Broad bean</t>
+  </si>
+  <si>
+    <t>Vegetable Sweetcorn</t>
   </si>
 </sst>
 </file>
@@ -1811,22 +1838,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7BCBD6-8023-42BC-961A-D24AB0CF5632}">
-  <dimension ref="B1:AD88"/>
+  <dimension ref="B1:AD90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1900,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -1923,7 +1950,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>411</v>
       </c>
@@ -1994,7 +2021,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -2005,7 +2032,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>419</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2014,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J4" s="1">
         <f>VLOOKUP($B4,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2036,8 +2063,7 @@
         <v>500</v>
       </c>
       <c r="O4" s="1">
-        <f>VLOOKUP($B4,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P4" s="1">
         <f>VLOOKUP($B4,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2084,13 +2110,13 @@
         <v>150</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -2110,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J5" s="1">
         <f>VLOOKUP($B5,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2132,8 +2158,7 @@
         <v>500</v>
       </c>
       <c r="O5" s="1">
-        <f>VLOOKUP($B5,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P5" s="1">
         <f>VLOOKUP($B5,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2180,13 +2205,13 @@
         <v>150</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -2206,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J6" s="1">
         <f>VLOOKUP($B6,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2228,8 +2253,7 @@
         <v>400</v>
       </c>
       <c r="O6" s="1">
-        <f>VLOOKUP($B6,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P6" s="1">
         <f>VLOOKUP($B6,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2276,13 +2300,13 @@
         <v>150</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J7" s="1">
         <f>VLOOKUP($B7,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2324,8 +2348,7 @@
         <v>1500</v>
       </c>
       <c r="O7" s="1">
-        <f>VLOOKUP($B7,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P7" s="1">
         <f>VLOOKUP($B7,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2372,13 +2395,13 @@
         <v>150</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -2398,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J8" s="1">
         <f>VLOOKUP($B8,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2420,8 +2443,7 @@
         <v>300</v>
       </c>
       <c r="O8" s="1">
-        <f>VLOOKUP($B8,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P8" s="1">
         <f>VLOOKUP($B8,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2468,13 +2490,13 @@
         <v>150</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -2494,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J9" s="1">
         <f>VLOOKUP($B9,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2516,8 +2538,7 @@
         <v>500</v>
       </c>
       <c r="O9" s="1">
-        <f>VLOOKUP($B9,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P9" s="1">
         <f>VLOOKUP($B9,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2564,13 +2585,13 @@
         <v>150</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -2590,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J10" s="1">
         <f>VLOOKUP($B10,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2612,8 +2633,7 @@
         <v>400</v>
       </c>
       <c r="O10" s="1">
-        <f>VLOOKUP($B10,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P10" s="1">
         <f>VLOOKUP($B10,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2660,15 +2680,15 @@
         <v>150</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -2677,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -2686,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J11" s="1">
         <f>VLOOKUP($B11,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2705,11 +2725,10 @@
         <v>1500</v>
       </c>
       <c r="N11" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O11" s="1">
-        <f>VLOOKUP($B11,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P11" s="1">
         <f>VLOOKUP($B11,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2756,15 +2775,15 @@
         <v>150</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2773,7 +2792,7 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -2782,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J12" s="1">
         <f>VLOOKUP($B12,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -2798,14 +2817,13 @@
       </c>
       <c r="M12" s="1">
         <f>VLOOKUP($B12,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1500</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N12" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O12" s="1">
-        <f>VLOOKUP($B12,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P12" s="1">
         <f>VLOOKUP($B12,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2852,24 +2870,24 @@
         <v>150</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -2878,15 +2896,15 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J13" s="1">
         <f>VLOOKUP($B13,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.40000000596046448</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="K13" s="1">
         <f>VLOOKUP($B13,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <f>VLOOKUP($B13,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -2897,11 +2915,10 @@
         <v>1500</v>
       </c>
       <c r="N13" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O13" s="1">
-        <f>VLOOKUP($B13,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P13" s="1">
         <f>VLOOKUP($B13,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -2909,7 +2926,7 @@
       </c>
       <c r="Q13" s="1" t="str">
         <f>VLOOKUP($B13,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Maturity</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R13" s="1">
         <v>0.05</v>
@@ -2948,24 +2965,24 @@
         <v>150</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -2974,15 +2991,15 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.27000001072883606</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="K14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -2990,37 +3007,36 @@
       </c>
       <c r="M14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>1500</v>
       </c>
       <c r="N14" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O14" s="1">
-        <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>LateReproductive</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R14" s="1">
         <v>0.05</v>
       </c>
       <c r="S14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>3.2200000286102294E-2</v>
+        <v>1.2999999523162841E-2</v>
       </c>
       <c r="T14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.1499999761581422E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U14" s="1">
         <f>VLOOKUP($B14,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.0000001192092902E-3</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -3044,24 +3060,24 @@
         <v>150</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3070,15 +3086,15 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.10000000149011612</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="K15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="L15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3089,11 +3105,10 @@
         <v>1500</v>
       </c>
       <c r="N15" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O15" s="1">
-        <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3108,27 +3123,27 @@
       </c>
       <c r="S15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.04</v>
+        <v>1.2999999523162841E-2</v>
       </c>
       <c r="T15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U15" s="1">
         <f>VLOOKUP($B15,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>0.01</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y15">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z15">
         <v>100</v>
@@ -3140,24 +3155,24 @@
         <v>150</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -3166,15 +3181,15 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.30000001192092896</v>
+        <v>0.27000001072883606</v>
       </c>
       <c r="K16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="L16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3182,18 +3197,17 @@
       </c>
       <c r="M16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1000</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N16" s="1">
         <v>600</v>
       </c>
       <c r="O16" s="1">
-        <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -3204,27 +3218,27 @@
       </c>
       <c r="S16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.6999998092651367E-2</v>
+        <v>3.2200000286102294E-2</v>
       </c>
       <c r="T16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.600000023841858E-2</v>
+        <v>1.1499999761581422E-2</v>
       </c>
       <c r="U16" s="1">
         <f>VLOOKUP($B16,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>8.0000001192092902E-3</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z16">
         <v>100</v>
@@ -3236,24 +3250,24 @@
         <v>150</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3262,15 +3276,15 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.30000001192092896</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="K17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="L17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3281,11 +3295,10 @@
         <v>1500</v>
       </c>
       <c r="N17" s="1">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="O17" s="1">
-        <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3300,15 +3313,15 @@
       </c>
       <c r="S17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>2.4000000953674317E-2</v>
+        <v>0.04</v>
       </c>
       <c r="T17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.2999999523162841E-2</v>
+        <v>0.01</v>
       </c>
       <c r="U17" s="1">
         <f>VLOOKUP($B17,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3332,24 +3345,24 @@
         <v>150</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3358,15 +3371,15 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.46299999952316284</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="K18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="L18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3374,14 +3387,13 @@
       </c>
       <c r="M18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>1000</v>
       </c>
       <c r="N18" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="O18" s="1">
-        <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3389,34 +3401,34 @@
       </c>
       <c r="Q18" s="1" t="str">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Maturity</v>
+        <v>LateReproductive</v>
       </c>
       <c r="R18" s="1">
         <v>0.05</v>
       </c>
       <c r="S18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.2000000476837159E-2</v>
+        <v>4.6999998092651367E-2</v>
       </c>
       <c r="T18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.600000023841858E-2</v>
       </c>
       <c r="U18" s="1">
         <f>VLOOKUP($B18,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z18">
         <v>100</v>
@@ -3428,24 +3440,24 @@
         <v>150</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD18" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -3454,15 +3466,15 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.5</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="K19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3470,14 +3482,13 @@
       </c>
       <c r="M19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N19" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O19" s="1">
-        <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3492,18 +3503,18 @@
       </c>
       <c r="S19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>3.5000000000000003E-2</v>
+        <v>2.4000000953674317E-2</v>
       </c>
       <c r="T19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.600000023841858E-2</v>
+        <v>1.2999999523162841E-2</v>
       </c>
       <c r="U19" s="1">
         <f>VLOOKUP($B19,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>5</v>
@@ -3524,24 +3535,24 @@
         <v>150</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD19" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3550,15 +3561,15 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.2083333283662796</v>
+        <v>0.46299999952316284</v>
       </c>
       <c r="K20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="L20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3566,14 +3577,13 @@
       </c>
       <c r="M20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
+        <v>1200.0000476837158</v>
+      </c>
+      <c r="N20" s="1">
         <v>1000</v>
       </c>
-      <c r="N20" s="1">
-        <v>500</v>
-      </c>
       <c r="O20" s="1">
-        <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3581,22 +3591,22 @@
       </c>
       <c r="Q20" s="1" t="str">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>LateReproductive</v>
+        <v>Maturity</v>
       </c>
       <c r="R20" s="1">
         <v>0.05</v>
       </c>
       <c r="S20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.300000190734863E-2</v>
+        <v>1.2000000476837159E-2</v>
       </c>
       <c r="T20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U20" s="1">
         <f>VLOOKUP($B20,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>0.01</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -3620,15 +3630,15 @@
         <v>150</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
@@ -3637,7 +3647,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -3646,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J21" s="1">
         <f>VLOOKUP($B21,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -3665,11 +3675,10 @@
         <v>1000</v>
       </c>
       <c r="N21" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O21" s="1">
-        <f>VLOOKUP($B21,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P21" s="1">
         <f>VLOOKUP($B21,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3716,24 +3725,24 @@
         <v>150</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -3742,15 +3751,15 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.30000001192092896</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="K22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="L22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3758,14 +3767,13 @@
       </c>
       <c r="M22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>699.99998807907104</v>
+        <v>1000</v>
       </c>
       <c r="N22" s="1">
         <v>500</v>
       </c>
       <c r="O22" s="1">
-        <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3773,34 +3781,34 @@
       </c>
       <c r="Q22" s="1" t="str">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Maturity</v>
+        <v>LateReproductive</v>
       </c>
       <c r="R22" s="1">
         <v>0.05</v>
       </c>
       <c r="S22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.6999998092651367E-2</v>
+        <v>4.300000190734863E-2</v>
       </c>
       <c r="T22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.600000023841858E-2</v>
+        <v>0.01</v>
       </c>
       <c r="U22" s="1">
         <f>VLOOKUP($B22,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y22">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z22">
         <v>100</v>
@@ -3812,41 +3820,41 @@
         <v>150</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.41170001029968262</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3854,14 +3862,13 @@
       </c>
       <c r="M23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N23" s="1">
         <v>1000</v>
       </c>
       <c r="O23" s="1">
-        <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3876,27 +3883,27 @@
       </c>
       <c r="S23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.600000023841858E-2</v>
       </c>
       <c r="U23" s="1">
         <f>VLOOKUP($B23,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y23">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z23">
         <v>100</v>
@@ -3908,41 +3915,41 @@
         <v>150</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.41170001029968262</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="K24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -3950,14 +3957,13 @@
       </c>
       <c r="M24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1500</v>
+        <v>699.99998807907104</v>
       </c>
       <c r="N24" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O24" s="1">
-        <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -3972,27 +3978,27 @@
       </c>
       <c r="S24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.2000000476837159E-2</v>
+        <v>4.6999998092651367E-2</v>
       </c>
       <c r="T24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.600000023841858E-2</v>
       </c>
       <c r="U24" s="1">
         <f>VLOOKUP($B24,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z24">
         <v>100</v>
@@ -4004,15 +4010,15 @@
         <v>150</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
@@ -4021,20 +4027,20 @@
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J25" s="1">
         <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.5</v>
+        <v>0.41170001029968262</v>
       </c>
       <c r="K25" s="1">
         <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
@@ -4049,11 +4055,10 @@
         <v>1500</v>
       </c>
       <c r="N25" s="1">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O25" s="1">
-        <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.85000002384185791</v>
+        <v>0.97</v>
       </c>
       <c r="P25" s="1">
         <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -4068,11 +4073,11 @@
       </c>
       <c r="S25" s="1">
         <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.399999976158142E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="T25" s="1">
         <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>6.9999998807907101E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U25" s="1">
         <f>VLOOKUP($B25,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -4082,59 +4087,59 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z25">
         <v>100</v>
       </c>
       <c r="AA25">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB25">
         <v>150</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD25" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.41170001029968262</v>
       </c>
       <c r="K26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.89</v>
+        <v>0.13</v>
       </c>
       <c r="L26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4142,37 +4147,36 @@
       </c>
       <c r="M26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>600.00002384185791</v>
+        <v>1500</v>
       </c>
       <c r="N26" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="O26" s="1">
-        <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="P26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.30000001192092896</v>
+        <v>0.5</v>
       </c>
       <c r="Q26" s="1" t="str">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>Maturity</v>
       </c>
       <c r="R26" s="1">
         <v>0.05</v>
       </c>
       <c r="S26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.02</v>
+        <v>1.2000000476837159E-2</v>
       </c>
       <c r="T26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>3.5000000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U26" s="1">
         <f>VLOOKUP($B26,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>0.01</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -4196,24 +4200,24 @@
         <v>150</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -4222,15 +4226,15 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.5</v>
       </c>
       <c r="K27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.89</v>
+        <v>0.13</v>
       </c>
       <c r="L27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4238,18 +4242,18 @@
       </c>
       <c r="M27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>600.00002384185791</v>
+        <v>1500</v>
       </c>
       <c r="N27" s="1">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="O27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="P27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.30000001192092896</v>
+        <v>0.5</v>
       </c>
       <c r="Q27" s="1" t="str">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -4264,43 +4268,43 @@
       </c>
       <c r="T27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>6.9999998807907101E-3</v>
       </c>
       <c r="U27" s="1">
         <f>VLOOKUP($B27,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>0.01</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y27">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z27">
         <v>100</v>
       </c>
       <c r="AA27">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB27">
         <v>150</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -4309,7 +4313,7 @@
         <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4318,15 +4322,15 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="K28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="L28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4337,7 +4341,7 @@
         <v>600.00002384185791</v>
       </c>
       <c r="N28" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
@@ -4356,11 +4360,11 @@
       </c>
       <c r="S28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>2.2000000476837159E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>2.2000000476837159E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="U28" s="1">
         <f>VLOOKUP($B28,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -4388,15 +4392,15 @@
         <v>150</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD28" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
         <v>224</v>
@@ -4405,7 +4409,7 @@
         <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -4414,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J29" s="1">
         <f>VLOOKUP($B29,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -4422,7 +4426,7 @@
       </c>
       <c r="K29" s="1">
         <f>VLOOKUP($B29,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L29" s="1">
         <f>VLOOKUP($B29,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4437,7 +4441,7 @@
       </c>
       <c r="O29" s="1">
         <f>VLOOKUP($B29,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.69999998807907104</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="P29" s="1">
         <f>VLOOKUP($B29,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -4445,7 +4449,7 @@
       </c>
       <c r="Q29" s="1" t="str">
         <f>VLOOKUP($B29,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>Maturity</v>
       </c>
       <c r="R29" s="1">
         <v>0.05</v>
@@ -4484,15 +4488,15 @@
         <v>150</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
         <v>224</v>
@@ -4501,7 +4505,7 @@
         <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4510,15 +4514,14 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J30" s="1">
-        <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.85000002384185791</v>
+        <v>0.99</v>
       </c>
       <c r="K30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="L30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4526,18 +4529,18 @@
       </c>
       <c r="M30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>600.00002384185791</v>
       </c>
       <c r="N30" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.40000000596046448</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="Q30" s="1" t="str">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -4548,15 +4551,15 @@
       </c>
       <c r="S30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.2000000476837159E-2</v>
       </c>
       <c r="T30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.2000000476837159E-2</v>
       </c>
       <c r="U30" s="1">
         <f>VLOOKUP($B30,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -4580,24 +4583,24 @@
         <v>150</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
         <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -4606,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -4614,7 +4617,7 @@
       </c>
       <c r="K31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="L31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4622,18 +4625,18 @@
       </c>
       <c r="M31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1500</v>
+        <v>600.00002384185791</v>
       </c>
       <c r="N31" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.75999999046325684</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="P31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="Q31" s="1" t="str">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -4644,15 +4647,15 @@
       </c>
       <c r="S31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.03</v>
+        <v>1.399999976158142E-2</v>
       </c>
       <c r="T31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="U31" s="1">
         <f>VLOOKUP($B31,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.0000001192092902E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -4676,24 +4679,24 @@
         <v>150</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD31" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
         <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -4702,15 +4705,15 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.81499999761581421</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="K32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4718,14 +4721,13 @@
       </c>
       <c r="M32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1500</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N32" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O32" s="1">
-        <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.94999998807907104</v>
+        <v>0.97</v>
       </c>
       <c r="P32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -4733,22 +4735,22 @@
       </c>
       <c r="Q32" s="1" t="str">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R32" s="1">
         <v>0.05</v>
       </c>
       <c r="S32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U32" s="1">
         <f>VLOOKUP($B32,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.0000001192092902E-3</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -4772,15 +4774,15 @@
         <v>150</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
         <v>224</v>
@@ -4789,7 +4791,7 @@
         <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -4798,11 +4800,11 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.40000000596046448</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="K33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
@@ -4814,33 +4816,33 @@
       </c>
       <c r="M33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>1500</v>
       </c>
       <c r="N33" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.75999999046325684</v>
       </c>
       <c r="P33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q33" s="1" t="str">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R33" s="1">
         <v>0.05</v>
       </c>
       <c r="S33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="T33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>3.7999999523162839E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U33" s="1">
         <f>VLOOKUP($B33,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -4868,24 +4870,24 @@
         <v>150</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD33" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
         <v>224</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -4894,15 +4896,15 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.69999998807907104</v>
+        <v>0.81499999761581421</v>
       </c>
       <c r="K34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -4910,33 +4912,33 @@
       </c>
       <c r="M34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>1500</v>
       </c>
       <c r="N34" s="1">
         <v>300</v>
       </c>
       <c r="O34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="P34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>1</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="Q34" s="1" t="str">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R34" s="1">
         <v>0.05</v>
       </c>
       <c r="S34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>2.5999999046325682E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="T34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U34" s="1">
         <f>VLOOKUP($B34,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -4964,15 +4966,15 @@
         <v>150</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
         <v>224</v>
@@ -4981,7 +4983,7 @@
         <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -4990,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J35" s="1">
         <f>VLOOKUP($B35,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -4998,7 +5000,7 @@
       </c>
       <c r="K35" s="1">
         <f>VLOOKUP($B35,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="L35" s="1">
         <f>VLOOKUP($B35,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5009,11 +5011,10 @@
         <v>1200.0000476837158</v>
       </c>
       <c r="N35" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="O35" s="1">
-        <f>VLOOKUP($B35,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P35" s="1">
         <f>VLOOKUP($B35,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -5060,15 +5061,15 @@
         <v>150</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s">
         <v>224</v>
@@ -5077,7 +5078,7 @@
         <v>225</v>
       </c>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -5086,15 +5087,15 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.25999999046325684</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="K36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="L36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5108,8 +5109,7 @@
         <v>300</v>
       </c>
       <c r="O36" s="1">
-        <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -5117,18 +5117,18 @@
       </c>
       <c r="Q36" s="1" t="str">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R36" s="1">
         <v>0.05</v>
       </c>
       <c r="S36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>3.5999999046325684E-2</v>
+        <v>2.5999999046325682E-2</v>
       </c>
       <c r="T36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>3.5999999046325684E-2</v>
+        <v>0.03</v>
       </c>
       <c r="U36" s="1">
         <f>VLOOKUP($B36,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -5156,15 +5156,15 @@
         <v>150</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD36" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
         <v>224</v>
@@ -5173,7 +5173,7 @@
         <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -5182,15 +5182,15 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.62999999523162842</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="K37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="L37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5201,30 +5201,29 @@
         <v>1200.0000476837158</v>
       </c>
       <c r="N37" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O37" s="1">
-        <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.97</v>
       </c>
       <c r="P37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1" t="str">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R37" s="1">
         <v>0.05</v>
       </c>
       <c r="S37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.8000001907348634E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.7999999523162839E-2</v>
       </c>
       <c r="U37" s="1">
         <f>VLOOKUP($B37,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -5252,15 +5251,15 @@
         <v>150</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD37" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s">
         <v>224</v>
@@ -5269,7 +5268,7 @@
         <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
@@ -5278,15 +5277,15 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.85000002384185791</v>
+        <v>0.25999999046325684</v>
       </c>
       <c r="K38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5300,8 +5299,7 @@
         <v>300</v>
       </c>
       <c r="O38" s="1">
-        <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.97</v>
       </c>
       <c r="P38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -5309,18 +5307,18 @@
       </c>
       <c r="Q38" s="1" t="str">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R38" s="1">
         <v>0.05</v>
       </c>
       <c r="S38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.8000001907348634E-2</v>
+        <v>3.5999999046325684E-2</v>
       </c>
       <c r="T38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.5999999046325684E-2</v>
       </c>
       <c r="U38" s="1">
         <f>VLOOKUP($B38,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -5348,15 +5346,15 @@
         <v>150</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s">
         <v>224</v>
@@ -5365,7 +5363,7 @@
         <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -5374,15 +5372,15 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.62999999523162842</v>
       </c>
       <c r="K39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="L39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5393,15 +5391,15 @@
         <v>1200.0000476837158</v>
       </c>
       <c r="N39" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="P39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -5412,11 +5410,11 @@
       </c>
       <c r="S39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.03</v>
+        <v>4.8000001907348634E-2</v>
       </c>
       <c r="T39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U39" s="1">
         <f>VLOOKUP($B39,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -5444,15 +5442,15 @@
         <v>150</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD39" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C40" t="s">
         <v>224</v>
@@ -5461,7 +5459,7 @@
         <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -5470,15 +5468,15 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="K40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="L40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5497,7 +5495,7 @@
       </c>
       <c r="P40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.40000000596046448</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -5508,27 +5506,27 @@
       </c>
       <c r="S40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.6999998092651367E-2</v>
+        <v>4.8000001907348634E-2</v>
       </c>
       <c r="T40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>4.6999998092651367E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U40" s="1">
         <f>VLOOKUP($B40,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>8.0000001192092902E-3</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y40">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z40">
         <v>100</v>
@@ -5540,24 +5538,24 @@
         <v>150</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD40" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
         <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="E41" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
         <v>37</v>
@@ -5566,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
@@ -5574,7 +5572,7 @@
       </c>
       <c r="K41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5582,49 +5580,49 @@
       </c>
       <c r="M41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>800.00001192092896</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N41" s="1">
         <v>400</v>
       </c>
       <c r="O41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.93999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="P41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1" t="str">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Maturity</v>
+        <v>Vegetative</v>
       </c>
       <c r="R41" s="1">
         <v>0.05</v>
       </c>
       <c r="S41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="T41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U41" s="1">
         <f>VLOOKUP($B41,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>0.01</v>
+        <v>8.0000001192092902E-3</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y41">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z41">
         <v>100</v>
@@ -5636,24 +5634,24 @@
         <v>150</v>
       </c>
       <c r="AC41" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD41" t="s">
         <v>459</v>
       </c>
-      <c r="AD41" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C42" t="s">
         <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
@@ -5662,15 +5660,14 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J42" s="1">
-        <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.99</v>
       </c>
       <c r="K42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="L42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5678,37 +5675,37 @@
       </c>
       <c r="M42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>800.00001192092896</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N42" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="P42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>LateReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R42" s="1">
         <v>0.05</v>
       </c>
       <c r="S42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.02</v>
+        <v>4.6999998092651367E-2</v>
       </c>
       <c r="T42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.399999976158142E-2</v>
+        <v>4.6999998092651367E-2</v>
       </c>
       <c r="U42" s="1">
         <f>VLOOKUP($B42,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>0.01</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -5732,15 +5729,15 @@
         <v>150</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD42" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
         <v>224</v>
@@ -5749,7 +5746,7 @@
         <v>302</v>
       </c>
       <c r="E43" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5758,15 +5755,15 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.40000000596046448</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="K43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="L43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5777,11 +5774,11 @@
         <v>800.00001192092896</v>
       </c>
       <c r="N43" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.85000002384185791</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="P43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -5789,18 +5786,18 @@
       </c>
       <c r="Q43" s="1" t="str">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>Maturity</v>
       </c>
       <c r="R43" s="1">
         <v>0.05</v>
       </c>
       <c r="S43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>3.2000000476837161E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>3.7999999523162839E-2</v>
+        <v>0.02</v>
       </c>
       <c r="U43" s="1">
         <f>VLOOKUP($B43,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -5828,24 +5825,24 @@
         <v>150</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD43" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C44" t="s">
         <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
@@ -5854,11 +5851,11 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="K44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
@@ -5870,49 +5867,48 @@
       </c>
       <c r="M44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>800.00001192092896</v>
       </c>
       <c r="N44" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O44" s="1">
-        <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.97</v>
       </c>
       <c r="P44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.34999999403953552</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" s="1" t="str">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>LateReproductive</v>
       </c>
       <c r="R44" s="1">
         <v>0.05</v>
       </c>
       <c r="S44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="T44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>1.399999976158142E-2</v>
       </c>
       <c r="U44" s="1">
         <f>VLOOKUP($B44,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X44">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y44">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z44">
         <v>100</v>
@@ -5924,24 +5920,24 @@
         <v>150</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD44" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C45" t="s">
         <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -5950,15 +5946,15 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.88999998569488525</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="K45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.77400001525878903</v>
+        <v>0.95</v>
       </c>
       <c r="L45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -5966,14 +5962,14 @@
       </c>
       <c r="M45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>899.99997615814209</v>
+        <v>800.00001192092896</v>
       </c>
       <c r="N45" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="P45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -5981,18 +5977,18 @@
       </c>
       <c r="Q45" s="1" t="str">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Maturity</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R45" s="1">
         <v>0.05</v>
       </c>
       <c r="S45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.7999999523162842E-2</v>
+        <v>3.2000000476837161E-2</v>
       </c>
       <c r="T45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>3.7999999523162839E-2</v>
       </c>
       <c r="U45" s="1">
         <f>VLOOKUP($B45,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -6020,41 +6016,41 @@
         <v>150</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD45" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C46" t="s">
         <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.69999998807907104</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="K46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="L46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6062,33 +6058,33 @@
       </c>
       <c r="M46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1000</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N46" s="1">
         <v>300</v>
       </c>
       <c r="O46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.94999998807907104</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="P46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="Q46" s="1" t="str">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R46" s="1">
         <v>0.05</v>
       </c>
       <c r="S46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>2.5999999046325682E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U46" s="1">
         <f>VLOOKUP($B46,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -6116,41 +6112,41 @@
         <v>150</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s">
         <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F47" t="s">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.88999998569488525</v>
       </c>
       <c r="K47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.95</v>
+        <v>0.77400001525878903</v>
       </c>
       <c r="L47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6158,14 +6154,13 @@
       </c>
       <c r="M47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1000</v>
+        <v>899.99997615814209</v>
       </c>
       <c r="N47" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O47" s="1">
-        <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.97</v>
       </c>
       <c r="P47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -6173,34 +6168,34 @@
       </c>
       <c r="Q47" s="1" t="str">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>Maturity</v>
       </c>
       <c r="R47" s="1">
         <v>0.05</v>
       </c>
       <c r="S47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>3.5000000000000003E-2</v>
+        <v>1.7999999523162842E-2</v>
       </c>
       <c r="T47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U47" s="1">
         <f>VLOOKUP($B47,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X47">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y47">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z47">
         <v>100</v>
@@ -6212,41 +6207,41 @@
         <v>150</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD47" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s">
         <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.94999998807907104</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="K48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="L48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6254,7 +6249,7 @@
       </c>
       <c r="M48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1200.0000476837158</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="1">
         <v>300</v>
@@ -6265,22 +6260,22 @@
       </c>
       <c r="P48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.40000000596046448</v>
+        <v>0.5</v>
       </c>
       <c r="Q48" s="1" t="str">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R48" s="1">
         <v>0.05</v>
       </c>
       <c r="S48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.350000023841858E-2</v>
+        <v>2.5999999046325682E-2</v>
       </c>
       <c r="T48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U48" s="1">
         <f>VLOOKUP($B48,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
@@ -6308,41 +6303,41 @@
         <v>150</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD48" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
         <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.43999999761581421</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="K49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="L49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6353,7 +6348,7 @@
         <v>1000</v>
       </c>
       <c r="N49" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
@@ -6365,34 +6360,34 @@
       </c>
       <c r="Q49" s="1" t="str">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R49" s="1">
         <v>0.05</v>
       </c>
       <c r="S49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>2.7999999523162841E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="U49" s="1">
         <f>VLOOKUP($B49,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X49">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y49">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z49">
         <v>100</v>
@@ -6404,24 +6399,24 @@
         <v>150</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD49" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C50" t="s">
         <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
@@ -6430,15 +6425,15 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.34000000357627869</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="K50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="L50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6446,18 +6441,18 @@
       </c>
       <c r="M50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>699.99998807907104</v>
+        <v>1200.0000476837158</v>
       </c>
       <c r="N50" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="P50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="Q50" s="1" t="str">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
@@ -6468,27 +6463,27 @@
       </c>
       <c r="S50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.04</v>
+        <v>1.350000023841858E-2</v>
       </c>
       <c r="T50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>2.0999999046325685E-2</v>
+        <v>0.02</v>
       </c>
       <c r="U50" s="1">
         <f>VLOOKUP($B50,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y50">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z50">
         <v>100</v>
@@ -6500,24 +6495,24 @@
         <v>150</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD50" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
         <v>224</v>
       </c>
       <c r="D51" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
@@ -6526,15 +6521,15 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.5</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="K51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="L51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6542,40 +6537,40 @@
       </c>
       <c r="M51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>600.00002384185791</v>
+        <v>1000</v>
       </c>
       <c r="N51" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="P51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.60000002384185791</v>
+        <v>0.5</v>
       </c>
       <c r="Q51" s="1" t="str">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>LateReproductive</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R51" s="1">
         <v>0.05</v>
       </c>
       <c r="S51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>0.02</v>
+        <v>2.7999999523162841E-2</v>
       </c>
       <c r="T51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U51" s="1">
         <f>VLOOKUP($B51,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
         <v>5</v>
@@ -6596,24 +6591,24 @@
         <v>150</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD51" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
         <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -6622,15 +6617,15 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="K52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.77699996948242189</v>
+        <v>0.73</v>
       </c>
       <c r="L52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6638,49 +6633,48 @@
       </c>
       <c r="M52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>600.00002384185791</v>
+        <v>699.99998807907104</v>
       </c>
       <c r="N52" s="1">
         <v>400</v>
       </c>
       <c r="O52" s="1">
-        <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.60000002384185791</v>
+        <v>0.5</v>
       </c>
       <c r="Q52" s="1" t="str">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>LateReproductive</v>
+        <v>EarlyReproductive</v>
       </c>
       <c r="R52" s="1">
         <v>0.05</v>
       </c>
       <c r="S52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.7999999523162842E-2</v>
+        <v>0.04</v>
       </c>
       <c r="T52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.02</v>
+        <v>2.0999999046325685E-2</v>
       </c>
       <c r="U52" s="1">
         <f>VLOOKUP($B52,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X52">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y52">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z52">
         <v>100</v>
@@ -6692,24 +6686,24 @@
         <v>150</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
         <v>224</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -6718,15 +6712,15 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.69999998807907104</v>
+        <v>0.5</v>
       </c>
       <c r="K53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="L53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6734,49 +6728,48 @@
       </c>
       <c r="M53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1500</v>
+        <v>600.00002384185791</v>
       </c>
       <c r="N53" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O53" s="1">
-        <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.80000001192092896</v>
+        <v>0.97</v>
       </c>
       <c r="P53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="Q53" s="1" t="str">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>Vegetative</v>
+        <v>LateReproductive</v>
       </c>
       <c r="R53" s="1">
         <v>0.05</v>
       </c>
       <c r="S53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="U53" s="1">
         <f>VLOOKUP($B53,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.0000001192092902E-3</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X53">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y53">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z53">
         <v>100</v>
@@ -6788,24 +6781,24 @@
         <v>150</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD53" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C54" t="s">
         <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F54" t="s">
         <v>37</v>
@@ -6814,15 +6807,15 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.30000001192092896</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="K54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.76</v>
+        <v>0.77699996948242189</v>
       </c>
       <c r="L54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6830,49 +6823,48 @@
       </c>
       <c r="M54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
-        <v>1000</v>
+        <v>600.00002384185791</v>
       </c>
       <c r="N54" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="O54" s="1">
-        <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.89999997615814209</v>
+        <v>0.97</v>
       </c>
       <c r="P54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
-        <v>0.5</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="Q54" s="1" t="str">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>EarlyReproductive</v>
+        <v>LateReproductive</v>
       </c>
       <c r="R54" s="1">
         <v>0.05</v>
       </c>
       <c r="S54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>4.4000000953674318E-2</v>
+        <v>1.7999999523162842E-2</v>
       </c>
       <c r="T54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>1.7000000476837158E-2</v>
+        <v>0.02</v>
       </c>
       <c r="U54" s="1">
         <f>VLOOKUP($B54,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>8.999999761581421E-3</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X54">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y54">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z54">
         <v>100</v>
@@ -6884,24 +6876,24 @@
         <v>150</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD54" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
         <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -6910,15 +6902,15 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
-        <v>0.47999998927116394</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="K55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="L55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
@@ -6929,11 +6921,11 @@
         <v>1500</v>
       </c>
       <c r="N55" s="1">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="O55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
-        <v>0.75</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="P55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
@@ -6941,237 +6933,439 @@
       </c>
       <c r="Q55" s="1" t="str">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
-        <v>MidReproductive</v>
+        <v>Vegetative</v>
       </c>
       <c r="R55" s="1">
         <v>0.05</v>
       </c>
       <c r="S55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
-        <v>1.399999976158142E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="T55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>0.04</v>
       </c>
       <c r="U55" s="1">
         <f>VLOOKUP($B55,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
-        <v>8.999999761581421E-3</v>
+        <v>8.0000001192092902E-3</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y55">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z55">
         <v>100</v>
       </c>
       <c r="AA55">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB55">
         <v>150</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="AD55" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>463</v>
-      </c>
-      <c r="D66" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" t="s">
+        <v>360</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="K56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
+        <v>0.76</v>
+      </c>
+      <c r="L56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="M56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
+        <v>1000</v>
+      </c>
+      <c r="N56" s="1">
+        <v>700</v>
+      </c>
+      <c r="O56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="P56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q56" s="1" t="str">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
+        <v>EarlyReproductive</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
+        <v>4.4000000953674318E-2</v>
+      </c>
+      <c r="T56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
+        <v>1.7000000476837158E-2</v>
+      </c>
+      <c r="U56" s="1">
+        <f>VLOOKUP($B56,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>5</v>
+      </c>
+      <c r="X56">
+        <v>30</v>
+      </c>
+      <c r="Y56">
+        <v>40</v>
+      </c>
+      <c r="Z56">
+        <v>100</v>
+      </c>
+      <c r="AA56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB56">
+        <v>150</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,J$2+1,FALSE)</f>
+        <v>0.47999998927116394</v>
+      </c>
+      <c r="K57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,K$2+1,FALSE)/K$1</f>
+        <v>0.78</v>
+      </c>
+      <c r="L57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,L$2+1,FALSE)/L$1</f>
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="M57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,M$2+1,FALSE)/M$1</f>
+        <v>1500</v>
+      </c>
+      <c r="N57" s="1">
+        <v>900</v>
+      </c>
+      <c r="O57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,O$2+1,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="P57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,P$2+1,FALSE)/P$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q57" s="1" t="str">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,Q$2+1,FALSE)</f>
+        <v>MidReproductive</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,S$2+1,FALSE)/S$1</f>
+        <v>1.399999976158142E-2</v>
+      </c>
+      <c r="T57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,T$2+1,FALSE)/T$1</f>
+        <v>8.999999761581421E-3</v>
+      </c>
+      <c r="U57" s="1">
+        <f>VLOOKUP($B57,'SVS table'!$A$3:$AG$83,U$2+1,FALSE)/U$1</f>
+        <v>8.999999761581421E-3</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>30</v>
+      </c>
+      <c r="Y57">
+        <v>40</v>
+      </c>
+      <c r="Z57">
+        <v>100</v>
+      </c>
+      <c r="AA57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB57">
+        <v>150</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>387</v>
       </c>
-      <c r="D67" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+      <c r="D69" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>388</v>
       </c>
-      <c r="D68" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+      <c r="D70" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>389</v>
       </c>
-      <c r="D69" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+      <c r="D71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>390</v>
       </c>
-      <c r="D70" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+      <c r="D72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>391</v>
       </c>
-      <c r="D71" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
+      <c r="D73" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>392</v>
       </c>
-      <c r="D72" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+      <c r="D74" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>393</v>
       </c>
-      <c r="D73" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
+      <c r="D75" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>394</v>
       </c>
-      <c r="D74" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
+      <c r="D76" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>395</v>
       </c>
-      <c r="D75" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
+      <c r="D77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>396</v>
       </c>
-      <c r="D76" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
+      <c r="D78" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>397</v>
       </c>
-      <c r="D77" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+      <c r="D79" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>398</v>
       </c>
-      <c r="D78" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+      <c r="D80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>399</v>
       </c>
-      <c r="D79" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
+      <c r="D81" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>400</v>
       </c>
-      <c r="D80" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+      <c r="D82" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>401</v>
       </c>
-      <c r="D81" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
+      <c r="D83" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>402</v>
       </c>
-      <c r="D82" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+      <c r="D84" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>403</v>
       </c>
-      <c r="D83" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
+      <c r="D85" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>404</v>
       </c>
-      <c r="D84" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+      <c r="D86" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>405</v>
       </c>
-      <c r="D85" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+      <c r="D87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>406</v>
       </c>
-      <c r="D86" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
+      <c r="D88" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>407</v>
       </c>
-      <c r="D87" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+      <c r="D89" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>408</v>
       </c>
-      <c r="D88" t="s">
-        <v>460</v>
+      <c r="D90" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D142" xr:uid="{EA7BCBD6-8023-42BC-961A-D24AB0CF5632}"/>
+  <autoFilter ref="D1:D144" xr:uid="{EA7BCBD6-8023-42BC-961A-D24AB0CF5632}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7180,16 +7374,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B55E395-9A3D-4623-AA0A-8DE22FD8B5E8}">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" activeCellId="1" sqref="A3 A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7290,7 +7484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7391,7 +7585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -7492,7 +7686,7 @@
         <v>1.2999999523162842</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -7593,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -7694,7 +7888,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7795,7 +7989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -7896,7 +8090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -7997,7 +8191,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8098,7 +8292,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -8199,7 +8393,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -8300,7 +8494,7 @@
         <v>1.2999999523162842</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -8401,7 +8595,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -8502,7 +8696,7 @@
         <v>1.2999999523162842</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -8603,7 +8797,7 @@
         <v>1.2999999523162842</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -8704,7 +8898,7 @@
         <v>1.2999999523162842</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -8805,7 +8999,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8906,7 +9100,7 @@
         <v>1.2999999523162842</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -9007,7 +9201,7 @@
         <v>3.2200000286102295</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -9108,7 +9302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -9209,7 +9403,7 @@
         <v>4.6999998092651367</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -9310,7 +9504,7 @@
         <v>2.4000000953674316</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -9411,7 +9605,7 @@
         <v>1.2000000476837158</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -9512,7 +9706,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -9613,7 +9807,7 @@
         <v>4.3000001907348633</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>166</v>
       </c>
@@ -9714,7 +9908,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -9815,7 +10009,7 @@
         <v>4.6999998092651367</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -9916,7 +10110,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -10017,7 +10211,7 @@
         <v>1.2000000476837158</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -10118,7 +10312,7 @@
         <v>1.2000000476837158</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -10219,7 +10413,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -10320,7 +10514,7 @@
         <v>2.0999999046325684</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -10421,7 +10615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -10522,7 +10716,7 @@
         <v>3.2000000476837158</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -10623,7 +10817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -10724,7 +10918,7 @@
         <v>3.4000000953674316</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -10825,7 +11019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -10926,7 +11120,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -11027,7 +11221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>223</v>
       </c>
@@ -11128,7 +11322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -11229,7 +11423,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -11330,7 +11524,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>241</v>
       </c>
@@ -11431,7 +11625,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>243</v>
       </c>
@@ -11532,7 +11726,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>244</v>
       </c>
@@ -11633,7 +11827,7 @@
         <v>2.2000000476837158</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>248</v>
       </c>
@@ -11734,7 +11928,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -11835,7 +12029,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>257</v>
       </c>
@@ -11936,7 +12130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>262</v>
       </c>
@@ -12037,7 +12231,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>263</v>
       </c>
@@ -12138,7 +12332,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>268</v>
       </c>
@@ -12239,7 +12433,7 @@
         <v>2.5999999046325684</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -12340,7 +12534,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -12441,7 +12635,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>278</v>
       </c>
@@ -12542,7 +12736,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>284</v>
       </c>
@@ -12643,7 +12837,7 @@
         <v>3.5999999046325684</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>285</v>
       </c>
@@ -12744,7 +12938,7 @@
         <v>4.8000001907348633</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>287</v>
       </c>
@@ -12845,7 +13039,7 @@
         <v>4.8000001907348633</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -12946,7 +13140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>297</v>
       </c>
@@ -13047,7 +13241,7 @@
         <v>4.6999998092651367</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -13148,7 +13342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>308</v>
       </c>
@@ -13249,7 +13443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -13350,7 +13544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>317</v>
       </c>
@@ -13451,7 +13645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>321</v>
       </c>
@@ -13552,7 +13746,7 @@
         <v>3.2000000476837158</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>323</v>
       </c>
@@ -13653,7 +13847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>324</v>
       </c>
@@ -13754,7 +13948,7 @@
         <v>1.7999999523162842</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>330</v>
       </c>
@@ -13855,7 +14049,7 @@
         <v>2.5999999046325684</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>335</v>
       </c>
@@ -13956,7 +14150,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>337</v>
       </c>
@@ -14057,7 +14251,7 @@
         <v>2.5999999046325684</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>338</v>
       </c>
@@ -14158,7 +14352,7 @@
         <v>1.3500000238418579</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>342</v>
       </c>
@@ -14259,7 +14453,7 @@
         <v>2.7999999523162842</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>343</v>
       </c>
@@ -14360,7 +14554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>344</v>
       </c>
@@ -14461,7 +14655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>350</v>
       </c>
@@ -14562,7 +14756,7 @@
         <v>1.7999999523162842</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>354</v>
       </c>
@@ -14663,7 +14857,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>359</v>
       </c>
@@ -14764,7 +14958,7 @@
         <v>4.4000000953674316</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -14865,7 +15059,7 @@
         <v>1.3999999761581421</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>367</v>
       </c>
@@ -14966,7 +15160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>369</v>
       </c>
@@ -15067,7 +15261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>370</v>
       </c>
@@ -15168,7 +15362,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>371</v>
       </c>
@@ -15269,7 +15463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>376</v>
       </c>
@@ -15370,7 +15564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -15471,7 +15665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>382</v>
       </c>
